--- a/JavaOCP_20230715/src/day02/庫存格式.xlsx
+++ b/JavaOCP_20230715/src/day02/庫存格式.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MB-207\Desktop\java\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="股票庫存" sheetId="1" r:id="rId1"/>
     <sheet name="信用庫存" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -698,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33.75" thickBot="1">
+    <row r="3" spans="1:6" ht="17.25" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -718,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50.25" thickBot="1">
+    <row r="4" spans="1:6" ht="17.25" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -758,7 +754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="50.25" thickBot="1">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -798,7 +794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="66.75" thickBot="1">
+    <row r="8" spans="1:6" ht="33.75" thickBot="1">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -818,7 +814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="50.25" thickBot="1">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -838,7 +834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="66.75" thickBot="1">
+    <row r="10" spans="1:6" ht="33.75" thickBot="1">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -871,9 +867,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1">
@@ -939,7 +935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="50.25" thickBot="1">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -959,7 +955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="66.75" thickBot="1">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -979,7 +975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="50.25" thickBot="1">
+    <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -999,7 +995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="50.25" thickBot="1">
+    <row r="8" spans="1:6" ht="33.75" thickBot="1">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1019,7 +1015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="50.25" thickBot="1">
+    <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1039,7 +1035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="50.25" thickBot="1">
+    <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -1059,7 +1055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33.75" thickBot="1">
+    <row r="11" spans="1:6" ht="17.25" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>

--- a/JavaOCP_20230715/src/day02/庫存格式.xlsx
+++ b/JavaOCP_20230715/src/day02/庫存格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="7470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24945" windowHeight="3660"/>
   </bookViews>
   <sheets>
     <sheet name="股票庫存" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     </r>
   </si>
   <si>
-    <t>CB-BROKER-ID</t>
-  </si>
-  <si>
     <t>X(4)</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     </r>
   </si>
   <si>
-    <t>CB-ACNO</t>
-  </si>
-  <si>
     <t>X(7)</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
   </si>
   <si>
     <t>*4</t>
-  </si>
-  <si>
-    <t>CB-COMPANY-NO</t>
   </si>
   <si>
     <t>X(6)</t>
@@ -214,6 +205,18 @@
   </si>
   <si>
     <t>信用庫存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB-ACNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB-COMPANY-NO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB-BROKER-ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -658,7 +661,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -673,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1">
@@ -719,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="5">
         <v>8</v>
@@ -731,18 +734,18 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
@@ -751,18 +754,18 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5">
         <v>19</v>
@@ -771,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
@@ -779,10 +782,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5">
         <v>25</v>
@@ -791,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33.75" thickBot="1">
@@ -799,10 +802,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5">
         <v>26</v>
@@ -811,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
@@ -819,10 +822,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5">
         <v>38</v>
@@ -831,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33.75" thickBot="1">
@@ -839,10 +842,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5">
         <v>52</v>
@@ -874,7 +877,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1">
@@ -900,10 +903,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -912,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickBot="1">
@@ -920,10 +923,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5">
         <v>5</v>
@@ -932,18 +935,18 @@
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
@@ -952,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1">
@@ -960,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5">
         <v>18</v>
@@ -972,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
@@ -980,10 +983,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5">
         <v>27</v>
@@ -992,7 +995,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33.75" thickBot="1">
@@ -1000,10 +1003,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5">
         <v>36</v>
@@ -1012,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
@@ -1020,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1032,18 +1035,18 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5">
         <v>52</v>
@@ -1052,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1">
@@ -1060,10 +1063,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5">
         <v>53</v>
@@ -1072,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1">
@@ -1080,10 +1083,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5">
         <v>54</v>
@@ -1092,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
